--- a/Usuarios y Contraseñas.xlsx
+++ b/Usuarios y Contraseñas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Pagina</t>
   </si>
@@ -47,7 +47,7 @@
     <t>FatoseDadosok@gmail.com</t>
   </si>
   <si>
-    <t>FatoseDados</t>
+    <t>FatoseDados2025</t>
   </si>
   <si>
     <t>Correo</t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>kobotoolbox</t>
+  </si>
+  <si>
+    <t>fatosedados</t>
   </si>
   <si>
     <t>Donde se crean las encuestras</t>
@@ -1224,7 +1227,7 @@
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1290,13 +1293,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Usuarios y Contraseñas.xlsx
+++ b/Usuarios y Contraseñas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1227,14 +1227,14 @@
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="13.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="28.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
